--- a/MEDIA/_ 1102    _301_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 1102    _301_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 1102    _301_2020-10-12~2020-10-12)</t>
+          <t>森邦(股)會計科目餘額明細(_ 1102    _301_2020-10-26~2020-10-26)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>31092959</v>
+        <v>51647157</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>補9月加班費-林名富                    </t>
+          <t>自動扣繳109/10月中華電話費:03-3603000   </t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-1486</v>
+        <v>-3036</v>
       </c>
       <c r="G4" t="n">
-        <v>31091473</v>
+        <v>51644121</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109866</t>
+          <t>110694</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,38 +478,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>後龍中山                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>自動扣繳109/10月中華電話費:0800626333   </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>39292</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G5" t="n">
-        <v>31130765</v>
+        <v>51644021</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110694</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1000067</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,21 +524,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>收據-楊梅總店代訓-共2家                 </t>
+          <t>自動扣繳109/10月中華電話費:2252038      </t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-30000</v>
+        <v>-519</v>
       </c>
       <c r="G6" t="n">
-        <v>31100765</v>
+        <v>51643502</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>109818</t>
+          <t>110694</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,21 +565,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>發票-台中逢甲代訓-共1家                 </t>
+          <t>自動扣繳109/10月中華電話費:03-3603023   </t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-15000</v>
+        <v>-1925</v>
       </c>
       <c r="G7" t="n">
-        <v>31085765</v>
+        <v>51641577</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>109818</t>
+          <t>110694</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -606,21 +606,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>發票-北市農安代訓-共1家                 </t>
+          <t>自動扣繳109/10月中華電話費:23260071     </t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-15000</v>
+        <v>-524</v>
       </c>
       <c r="G8" t="n">
-        <v>31070765</v>
+        <v>51641053</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>109818</t>
+          <t>110694</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -647,21 +647,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>匯鉑宴-支付內聯單2020-10-080290賴允中費用申請</t>
+          <t>自動扣繳109/10月中華電話費:0800888683   </t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-101</v>
       </c>
       <c r="G9" t="n">
-        <v>31070765</v>
+        <v>51640952</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>109861</t>
+          <t>110694</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -673,7 +673,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,38 +683,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>新竹橫山	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>自動扣繳109/10月中華電話費:Y172351      </t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>19638</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-2193</v>
       </c>
       <c r="G10" t="n">
-        <v>31090403</v>
+        <v>51638759</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110694</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1000844</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,38 +724,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>苗栗中正                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>自動扣繳109/10月中華電話費:23261382     </t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31433</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-849</v>
       </c>
       <c r="G11" t="n">
-        <v>31121836</v>
+        <v>51637910</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110694</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000788</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,38 +765,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>楠梓翠屏                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>自動扣繳109/10月中華電話費:Y231252      </t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-859</v>
       </c>
       <c r="G12" t="n">
-        <v>31151836</v>
+        <v>51637051</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110694</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000772</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,38 +806,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>桃園信光                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>自動扣繳109/10月中華電話費:Y281387-是方電訊 </t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>40607</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-2502</v>
       </c>
       <c r="G13" t="n">
-        <v>31192443</v>
+        <v>51634549</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110694</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000908</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,38 +847,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>竹北台元	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>自動扣繳109/10月中華電話費:2217063      </t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16449</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-251</v>
       </c>
       <c r="G14" t="n">
-        <v>31208892</v>
+        <v>51634298</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110694</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000920</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,38 +888,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>竹北福興                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>自動扣繳109/10月中華電話費:03-3603786   </t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17464</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-285</v>
       </c>
       <c r="G15" t="n">
-        <v>31226356</v>
+        <v>51634013</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110694</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000716</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -934,21 +934,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>匯義強興-109/08月油品費用              </t>
+          <t>自動扣繳109/10月中華電話費:3922141      </t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-112850</v>
+        <v>-311</v>
       </c>
       <c r="G16" t="n">
-        <v>31113506</v>
+        <v>51633702</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>109781</t>
+          <t>110694</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -960,7 +960,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -975,21 +975,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>存現                            </t>
+          <t>自動扣繳109/10月中華電話費:0800268998   </t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1445825</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-447</v>
       </c>
       <c r="G17" t="n">
-        <v>32559331</v>
+        <v>51633255</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>109909</t>
+          <t>110694</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1016,21 +1016,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>存現                            </t>
+          <t>自動扣繳109/10月中華電話費:0800023999   </t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1224956</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-124</v>
       </c>
       <c r="G18" t="n">
-        <v>33784287</v>
+        <v>51633131</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>109909</t>
+          <t>110694</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1042,7 +1042,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1057,21 +1057,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>存現                            </t>
+          <t>自動扣繳109/10月電話費0936997740      </t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>610872</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1799</v>
       </c>
       <c r="G19" t="n">
-        <v>34395159</v>
+        <v>51631332</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>109909</t>
+          <t>110694</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1098,21 +1098,21 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10906月台北展NO113賴姿妤-桃園國強 工程款26萬 </t>
+          <t>付呂煌祺建築師事務所-(全)設計費-尾款          </t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>260000</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-104004</v>
       </c>
       <c r="G20" t="n">
-        <v>34655159</v>
+        <v>51527328</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>109909</t>
+          <t>110131</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1124,7 +1124,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>堤諾林口店                                   </t>
+          <t>台灣農畜產工業股份有限公司                           </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1143,29 +1143,29 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>52948</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-675549</v>
       </c>
       <c r="G21" t="n">
-        <v>34708107</v>
+        <v>50851779</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>109941</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>4000023</t>
+          <t>100365</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>堤諾長庚                                    </t>
+          <t>壯佳果股份有限公司                               </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1184,29 +1184,29 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>9808</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-47970</v>
       </c>
       <c r="G22" t="n">
-        <v>34717915</v>
+        <v>50803809</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>109941</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4000024</t>
+          <t>100057</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中一食品股份有限公司                              </t>
+          <t>大吉興業有限公司                                </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1225,29 +1225,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>38037</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-13862</v>
       </c>
       <c r="G23" t="n">
-        <v>34755952</v>
+        <v>50789947</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>5999894</t>
+          <t>100035</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>北市文德                                    </t>
+          <t>大翰翔企業股份有限公司                             </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1266,29 +1266,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25519</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>-98250</v>
       </c>
       <c r="G24" t="n">
-        <v>34781471</v>
+        <v>50691697</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1000355</t>
+          <t>100025</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>白河國泰                                    </t>
+          <t>宗霆股份有限公司                                </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1307,29 +1307,29 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>19587</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-66470</v>
       </c>
       <c r="G25" t="n">
-        <v>34801058</v>
+        <v>50625227</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1000536</t>
+          <t>100417</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>北市五分	                                   </t>
+          <t>富統食品股份有限公司                              </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1348,29 +1348,29 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23405</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-743370</v>
       </c>
       <c r="G26" t="n">
-        <v>34824463</v>
+        <v>49881857</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1000905</t>
+          <t>100244</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>東勢中山                                    </t>
+          <t>將寶實業股份有限公司                              </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1389,29 +1389,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>19087</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>-164190</v>
       </c>
       <c r="G27" t="n">
-        <v>34843550</v>
+        <v>49717667</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1000290</t>
+          <t>100249</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>豐原南陽	                                   </t>
+          <t>展昌行                                     </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1430,29 +1430,29 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>32840</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-83970</v>
       </c>
       <c r="G28" t="n">
-        <v>34876390</v>
+        <v>49633697</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1000856</t>
+          <t>100058</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>板橋民族                                    </t>
+          <t>山汰科技股份有限公司                              </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1471,29 +1471,29 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>16569</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-511488</v>
       </c>
       <c r="G29" t="n">
-        <v>34892959</v>
+        <v>49122209</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1000153</t>
+          <t>100517</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>內湖江南                                    </t>
+          <t>弘飛興業股份有限公司                              </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1512,29 +1512,29 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>77801</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>-319970</v>
       </c>
       <c r="G30" t="n">
-        <v>34970760</v>
+        <v>48802239</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1000146</t>
+          <t>100709</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>汐止復興                                    </t>
+          <t>方霖實業有限公司                                </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1553,29 +1553,29 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>19063</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-482373</v>
       </c>
       <c r="G31" t="n">
-        <v>34989823</v>
+        <v>48319866</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1000285</t>
+          <t>100438</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>北市南海	                                   </t>
+          <t>有勝企業股份有限公司                              </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1594,29 +1594,29 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>24912</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-542777</v>
       </c>
       <c r="G32" t="n">
-        <v>35014735</v>
+        <v>47777089</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1000850</t>
+          <t>100307</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>新竹湳雅	                                   </t>
+          <t>欣伯國際股份有限公司                              </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1635,29 +1635,29 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29234</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>-27969</v>
       </c>
       <c r="G33" t="n">
-        <v>35043969</v>
+        <v>47749120</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1000918</t>
+          <t>100325</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>桃園廈門                                    </t>
+          <t>泰安食品股份有限公司                              </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1676,29 +1676,29 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>18893</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-369274</v>
       </c>
       <c r="G34" t="n">
-        <v>35062862</v>
+        <v>47379846</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1000910</t>
+          <t>100355</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>土城永寧	                                   </t>
+          <t>海麟國際食品有限公司                              </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1717,29 +1717,29 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>19714</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-134490</v>
       </c>
       <c r="G35" t="n">
-        <v>35082576</v>
+        <v>47245356</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1000935</t>
+          <t>100760</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>竹北六家嘉豐	                                 </t>
+          <t>碁富食品股份有限公司                              </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1758,29 +1758,29 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>11978</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>-638369</v>
       </c>
       <c r="G36" t="n">
-        <v>35094554</v>
+        <v>46606987</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1000927</t>
+          <t>100280</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>永和永利	                                   </t>
+          <t>立墩股份有限公司                                </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1799,29 +1799,29 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>22996</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-498545</v>
       </c>
       <c r="G37" t="n">
-        <v>35117550</v>
+        <v>46108442</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1000954</t>
+          <t>100385</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1831,38 +1831,38 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>台北八德                                    </t>
+          <t>紅政企業股份有限公司                              </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>9518</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-1626750</v>
       </c>
       <c r="G38" t="n">
-        <v>35127068</v>
+        <v>44481692</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>109918</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1000202</t>
+          <t>100103</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1872,38 +1872,38 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>大社旗楠                                    </t>
+          <t>美福貿易股份有限公司                              </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>25583</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>-97250</v>
       </c>
       <c r="G39" t="n">
-        <v>35152651</v>
+        <v>44384442</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>109918</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1000595</t>
+          <t>100092</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1913,38 +1913,38 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>斗六民生                                    </t>
+          <t>誠毅紙器股份有限公司                              </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20910</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-151288</v>
       </c>
       <c r="G40" t="n">
-        <v>35173561</v>
+        <v>44233154</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>109918</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1000131</t>
+          <t>100294</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1954,38 +1954,38 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>台中長春                                    </t>
+          <t>世界大山有限公司(英屬維京群島商大山洋行有限公司台灣分公司)          </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>49843</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-16199</v>
       </c>
       <c r="G41" t="n">
-        <v>35223404</v>
+        <v>44216955</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>109918</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1000264</t>
+          <t>100029</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1995,38 +1995,38 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伸港水尾                                    </t>
+          <t>元家企業股份有限公司                              </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>30293</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>-38970</v>
       </c>
       <c r="G42" t="n">
-        <v>35253697</v>
+        <v>44177985</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>109918</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1000474</t>
+          <t>100221</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2036,38 +2036,38 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>宜蘭健康                                    </t>
+          <t>豐儷企業有限公司                                </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7299</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-33570</v>
       </c>
       <c r="G43" t="n">
-        <v>35260996</v>
+        <v>44144415</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>109918</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1000727</t>
+          <t>100434</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2077,38 +2077,38 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>大甲中山	                                   </t>
+          <t>加和紙業股份有限公司                              </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>50101</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-55820</v>
       </c>
       <c r="G44" t="n">
-        <v>35311097</v>
+        <v>44088595</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>109918</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1000865</t>
+          <t>100254</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2118,38 +2118,38 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>楊梅四維                                    </t>
+          <t>鄉村食品股份有限公司                              </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>21311</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>-385050</v>
       </c>
       <c r="G45" t="n">
-        <v>35332408</v>
+        <v>43703545</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>109918</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1000252</t>
+          <t>100342</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>北市和平                                    </t>
+          <t>點鑫產業股份有限公司                              </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2168,29 +2168,29 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>15626</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-3545167</v>
       </c>
       <c r="G46" t="n">
-        <v>35348034</v>
+        <v>40158378</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1000414</t>
+          <t>100041</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>桃園大業	                                   </t>
+          <t>加峰塑膠工業有限公司                              </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2209,29 +2209,29 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29062</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>-198100</v>
       </c>
       <c r="G47" t="n">
-        <v>35377096</v>
+        <v>39960278</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1000873</t>
+          <t>100698</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>羅東成功                                    </t>
+          <t>原產地國際食品有限公司                             </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2250,29 +2250,29 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>20622</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>-15720</v>
       </c>
       <c r="G48" t="n">
-        <v>35397718</v>
+        <v>39944558</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1000317</t>
+          <t>100224</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>善化大成                                    </t>
+          <t>龍達國際有限公司                                </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2291,29 +2291,29 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>41620</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>-954194</v>
       </c>
       <c r="G49" t="n">
-        <v>35439338</v>
+        <v>38990364</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1000629</t>
+          <t>100386</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2323,31 +2323,4746 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>台灣卜蜂企業股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-682712</v>
+      </c>
+      <c r="G50" t="n">
+        <v>38307652</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>110008</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>益彬實業股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-772170</v>
+      </c>
+      <c r="G51" t="n">
+        <v>37535482</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>100794</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>華盛食品有限公司                                </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-123970</v>
+      </c>
+      <c r="G52" t="n">
+        <v>37411512</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>100110</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>稻穗企業社                                   </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-24971</v>
+      </c>
+      <c r="G53" t="n">
+        <v>37386541</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>100033</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>統清股份有限公司                                </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-163650</v>
+      </c>
+      <c r="G54" t="n">
+        <v>37222891</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>100686</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>三紅企業股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-95970</v>
+      </c>
+      <c r="G55" t="n">
+        <v>37126921</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>100235</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>華福食品股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-1195721</v>
+      </c>
+      <c r="G56" t="n">
+        <v>35931200</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>100132</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>開元食品工業(股)公司二洲美營業所                       </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-243930</v>
+      </c>
+      <c r="G57" t="n">
+        <v>35687270</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>100810</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>今口香調理食品股份有限公司                           </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-2540648</v>
+      </c>
+      <c r="G58" t="n">
+        <v>33146622</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>100267</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>古德芙股份有限公司                               </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-36465</v>
+      </c>
+      <c r="G59" t="n">
+        <v>33110157</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>100786</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>可津食品有限公司                                </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-414070</v>
+      </c>
+      <c r="G60" t="n">
+        <v>32696087</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>100141</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>開元食品工業股份有限公司台北市內湖區營業所                   </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-754566</v>
+      </c>
+      <c r="G61" t="n">
+        <v>31941521</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>100443</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>乙香房實業股份有限公司                             </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-41568</v>
+      </c>
+      <c r="G62" t="n">
+        <v>31899953</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>100781</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>綠盟股份有限公司                                </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-287549</v>
+      </c>
+      <c r="G63" t="n">
+        <v>31612404</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>100387</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>味全食品工業股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-901470</v>
+      </c>
+      <c r="G64" t="n">
+        <v>30710934</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>100200</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>喜生食品工業股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-1980992</v>
+      </c>
+      <c r="G65" t="n">
+        <v>28729942</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>100341</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>風城製麵有限公司                                </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-21285</v>
+      </c>
+      <c r="G66" t="n">
+        <v>28708657</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>100823</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>飛力食品企業股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-160410</v>
+      </c>
+      <c r="G67" t="n">
+        <v>28548247</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>100708</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>佰勳股份有限公司                                </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-37455</v>
+      </c>
+      <c r="G68" t="n">
+        <v>28510792</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>100010</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>全盈創新科技有限公司(全盈稻香餐具)                      </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-62445</v>
+      </c>
+      <c r="G69" t="n">
+        <v>28448347</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>100721</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>羅德食品興業有限公司                              </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-281946</v>
+      </c>
+      <c r="G70" t="n">
+        <v>28166401</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大新食品有限公司                                </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-1737550</v>
+      </c>
+      <c r="G71" t="n">
+        <v>26428851</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>100040</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>魔術食品工業股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-2861357</v>
+      </c>
+      <c r="G72" t="n">
+        <v>23567494</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>100079</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>麥可利食品有限公司                               </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-358370</v>
+      </c>
+      <c r="G73" t="n">
+        <v>23209124</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>100075</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>十鴻企業有限公司                                </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-115755</v>
+      </c>
+      <c r="G74" t="n">
+        <v>23093369</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>100223</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南僑油脂事業股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-213169</v>
+      </c>
+      <c r="G75" t="n">
+        <v>22880200</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>100285</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>群博國際有限公司                                </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-663289</v>
+      </c>
+      <c r="G76" t="n">
+        <v>22216911</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>100154</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>誠芳股份有限公司                                </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-8610</v>
+      </c>
+      <c r="G77" t="n">
+        <v>22208301</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>100213</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富華股份有限公司                                </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-38526</v>
+      </c>
+      <c r="G78" t="n">
+        <v>22169775</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>100423</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>弘繽企業有限公司                                </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-97170</v>
+      </c>
+      <c r="G79" t="n">
+        <v>22072605</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>100099</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>品高企業股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-144287</v>
+      </c>
+      <c r="G80" t="n">
+        <v>21928318</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>100245</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>金城餐具有限公司                                </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-80894</v>
+      </c>
+      <c r="G81" t="n">
+        <v>21847424</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>100272</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>金安信食品有限公司                               </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-274420</v>
+      </c>
+      <c r="G82" t="n">
+        <v>21573004</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>100789</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>強匠冷凍食品股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-199039</v>
+      </c>
+      <c r="G83" t="n">
+        <v>21373965</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>100685</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>喬記實業有限公司                                </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-485070</v>
+      </c>
+      <c r="G84" t="n">
+        <v>20888895</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>100165</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>坊元實業股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-7845</v>
+      </c>
+      <c r="G85" t="n">
+        <v>20881050</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>100429</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>馥德生有限公司                                 </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-219970</v>
+      </c>
+      <c r="G86" t="n">
+        <v>20661080</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>100420</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>御軒食品有限公司                                </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-1078894</v>
+      </c>
+      <c r="G87" t="n">
+        <v>19582186</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>100232</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>曲辰實業有限公司                                </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-167970</v>
+      </c>
+      <c r="G88" t="n">
+        <v>19414216</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>100780</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>士盟紙業有限公司                                </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-15930</v>
+      </c>
+      <c r="G89" t="n">
+        <v>19398286</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>100175</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>桂冠實業股份有公司                               </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-6330</v>
+      </c>
+      <c r="G90" t="n">
+        <v>19391956</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>100145</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>廖丁川                                     </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-33620</v>
+      </c>
+      <c r="G91" t="n">
+        <v>19358336</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>100793</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>弘大昌貿易有限公司                               </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-2850</v>
+      </c>
+      <c r="G92" t="n">
+        <v>19355486</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>100812</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>模里西斯商台紐股份有限公司台灣分公司                      </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-179970</v>
+      </c>
+      <c r="G93" t="n">
+        <v>19175516</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>100371</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>泉橋有限公司                                  </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-412343</v>
+      </c>
+      <c r="G94" t="n">
+        <v>18763173</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>100490</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>愛味香食品股份有限公司                             </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-184772</v>
+      </c>
+      <c r="G95" t="n">
+        <v>18578401</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>100068</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>皓廷食品科技有限公司                              </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-38970</v>
+      </c>
+      <c r="G96" t="n">
+        <v>18539431</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>100754</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>祥亮行銷事業股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-823820</v>
+      </c>
+      <c r="G97" t="n">
+        <v>17715611</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>100351</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>憶霖企業股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-423720</v>
+      </c>
+      <c r="G98" t="n">
+        <v>17291891</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>100320</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>承康研創股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-163440</v>
+      </c>
+      <c r="G99" t="n">
+        <v>17128451</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>100765</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>禾山國際有限公司                                </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-448870</v>
+      </c>
+      <c r="G100" t="n">
+        <v>16679581</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>100803</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>東爵企業有限公司                                </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-300486</v>
+      </c>
+      <c r="G101" t="n">
+        <v>16379095</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>100034</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>紅利食品股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-396220</v>
+      </c>
+      <c r="G102" t="n">
+        <v>15982875</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>100546</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>美藍雷股份有限公司                               </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-514695</v>
+      </c>
+      <c r="G103" t="n">
+        <v>15468180</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>100038</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>東豐調理食品股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-214170</v>
+      </c>
+      <c r="G104" t="n">
+        <v>15254010</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>100797</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>歐得斯有限公司                                 </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-23511</v>
+      </c>
+      <c r="G105" t="n">
+        <v>15230499</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>100809</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>翔琪實業有限公司                                </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-145577</v>
+      </c>
+      <c r="G106" t="n">
+        <v>15084922</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>100791</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>永豐餘消費品實業股份有限公司                          </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-22545</v>
+      </c>
+      <c r="G107" t="n">
+        <v>15062377</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>100531</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>源友企業股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-57470</v>
+      </c>
+      <c r="G108" t="n">
+        <v>15004907</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>110398</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>100226</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>艾瑞始達股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-1175870</v>
+      </c>
+      <c r="G109" t="n">
+        <v>13829037</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>100422</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>華冠乳品股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-381875</v>
+      </c>
+      <c r="G110" t="n">
+        <v>13447162</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>110335</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>100107</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>佑鎬國際食品有限公司                              </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-171406</v>
+      </c>
+      <c r="G111" t="n">
+        <v>13275756</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>100305</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>全國食材廣場有限公司                              </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-3000</v>
+      </c>
+      <c r="G112" t="n">
+        <v>13272756</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>100157</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>力遠貿易股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-113370</v>
+      </c>
+      <c r="G113" t="n">
+        <v>13159386</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>100763</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>協憶有限公司                                  </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-209689</v>
+      </c>
+      <c r="G114" t="n">
+        <v>12949697</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>100529</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>台灣可果美股份有限公司                             </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-117318</v>
+      </c>
+      <c r="G115" t="n">
+        <v>12832379</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>100510</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>嘉楓食品股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-2301</v>
+      </c>
+      <c r="G116" t="n">
+        <v>12830078</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>100279</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>尚品肉鬆實業有限公司                              </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-336990</v>
+      </c>
+      <c r="G117" t="n">
+        <v>12493088</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>100185</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>康百國際食品股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-190290</v>
+      </c>
+      <c r="G118" t="n">
+        <v>12302798</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>100800</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>廣富園開發行銷有限公司                             </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-149769</v>
+      </c>
+      <c r="G119" t="n">
+        <v>12153029</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>100788</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>東穎食品實業有限公司                              </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-114127</v>
+      </c>
+      <c r="G120" t="n">
+        <v>12038902</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>欣臨企業股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-4710</v>
+      </c>
+      <c r="G121" t="n">
+        <v>12034192</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>100352</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>永大食品生技股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-30770</v>
+      </c>
+      <c r="G122" t="n">
+        <v>12003422</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>100209</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>河洛企業股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-54854</v>
+      </c>
+      <c r="G123" t="n">
+        <v>11948568</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>100128</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>爭鮮股份有限公司                                </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-301538</v>
+      </c>
+      <c r="G124" t="n">
+        <v>11647030</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>紅榜股份有限公司                                </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-67470</v>
+      </c>
+      <c r="G125" t="n">
+        <v>11579560</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>100069</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>美味大師股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-326259</v>
+      </c>
+      <c r="G126" t="n">
+        <v>11253301</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>100545</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>美味王食品工業有限公司                             </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-63890</v>
+      </c>
+      <c r="G127" t="n">
+        <v>11189411</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>100082</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>美食家食材通路股份有限公司                           </t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-4002</v>
+      </c>
+      <c r="G128" t="n">
+        <v>11185409</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>100488</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>聯合利華股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-10313</v>
+      </c>
+      <c r="G129" t="n">
+        <v>11175096</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>100391</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>聯華製粉食品股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-87509</v>
+      </c>
+      <c r="G130" t="n">
+        <v>11087587</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>100798</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>聯馥食品股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-33234</v>
+      </c>
+      <c r="G131" t="n">
+        <v>11054353</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>100748</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>良潔實業有限公司                                </t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-7970</v>
+      </c>
+      <c r="G132" t="n">
+        <v>11046383</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>100403</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>豐盈股份有限公司                                </t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-137250</v>
+      </c>
+      <c r="G133" t="n">
+        <v>10909133</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>100432</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>陸榖實業股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-23289</v>
+      </c>
+      <c r="G134" t="n">
+        <v>10885844</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>100817</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>駿伸企業有限公司                                </t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-27390</v>
+      </c>
+      <c r="G135" t="n">
+        <v>10858454</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>110090</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>100261</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>台北八德                                    </t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>8670</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>10867124</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>110588</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>1000202</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>楊梅四維                                    </t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>13911</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>10881035</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>110588</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>豐原向陽                                    </t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>12797</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>10893832</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>1000256</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>台東中華                                    </t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>6016</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>10899848</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>1000582</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>汐止工建	                                   </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>16979</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>10916827</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>1000777</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>豐原南陽	                                   </t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>23562</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>10940389</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>1000856</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>北市和平                                    </t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>20109</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>10960498</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>1000414</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>發票-中壢中北代訓-共3家                 </t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>-45000</v>
-      </c>
-      <c r="G50" t="n">
-        <v>35394338</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>109818</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>存現                            </t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>1050842</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>12011340</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>110584</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>羅東成功                                    </t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>29556</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>12040896</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>1000317</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>善化大成                                    </t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>22780</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>12063676</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>1000629</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>竹北嘉興	                                   </t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>26906</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>12090582</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>1000938</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>民雄文化                                    </t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>12120582</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>1000854</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>苗栗中正                                    </t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>23626</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>12144208</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>1000788</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>汐止復興                                    </t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>15542</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>12159750</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>1000285</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>平鎮豐頂                                    </t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>22158</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>12181908</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>1000805</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>楊梅梅獅                                    </t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>76287</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>12258195</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>1000961</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>桃園廈門                                    </t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>18911</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>12277106</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>1000910</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>桃園大業	                                   </t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>24732</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>12301838</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>1000873</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>白河國泰                                    </t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>15832</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>12317670</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>1000536</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>北市光復	                                   </t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>12367670</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>1000952</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>北市光復	                                   </t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>6054</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>12373724</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>1000952</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>新竹湳雅	                                   </t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>27982</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>12401706</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>110594</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>1000918</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>竹北台元	                                   </t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>17923</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>12419629</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>110594</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>1000920</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>土城永寧	                                   </t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>28624</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>12448253</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>110594</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>1000935</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>新竹橫山	                                   </t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>24105</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>12472358</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>110594</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>1000844</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>八德中正	                                   </t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>32208</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>12504566</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>110594</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>1000830</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>永和竹林                                    </t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>31595</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>12536161</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>110594</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>1000573</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>北市五分	                                   </t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>18929</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>12555090</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>110594</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>1000905</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>桃園中正長春	                                 </t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>12654</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>12567744</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>110594</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>1000925</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中壢環東中山                                  </t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>16771</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>12584515</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>110594</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>1000817</t>
         </is>
       </c>
     </row>

--- a/MEDIA/_ 1102    _301_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 1102    _301_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 1102    _301_2020-10-26~2020-10-26)</t>
+          <t>森邦(股)會計科目餘額明細(_ 1102    _301_2020-12-02~2020-12-04)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>51647157</v>
+        <v>17575403</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -437,38 +437,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>板橋江翠	                                   </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>自動扣繳109/10月中華電話費:03-3603000   </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>59325</v>
       </c>
       <c r="F4" t="n">
-        <v>-3036</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>51644121</v>
+        <v>17634728</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>110694</t>
+          <t>112177</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000795</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,38 +478,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>竹北文興                                    </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>自動扣繳109/10月中華電話費:0800626333   </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>9795</v>
       </c>
       <c r="F5" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>51644021</v>
+        <v>17644523</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>110694</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000903</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,38 +519,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>新莊富國                                    </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>自動扣繳109/10月中華電話費:2252038      </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F6" t="n">
-        <v>-519</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>51643502</v>
+        <v>17664523</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>110694</t>
+          <t>112177</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000208</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -560,38 +560,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>汐止工建	                                   </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>自動扣繳109/10月中華電話費:03-3603023   </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>34933</v>
       </c>
       <c r="F7" t="n">
-        <v>-1925</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>51641577</v>
+        <v>17699456</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>110694</t>
+          <t>112177</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000777</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,38 +601,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>永和竹林                                    </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>自動扣繳109/10月中華電話費:23260071     </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>31763</v>
       </c>
       <c r="F8" t="n">
-        <v>-524</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>51641053</v>
+        <v>17731219</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>110694</t>
+          <t>112177</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000573</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,38 +642,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>高雄六合	                                   </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>自動扣繳109/10月中華電話費:0800888683   </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>28218</v>
       </c>
       <c r="F9" t="n">
-        <v>-101</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>51640952</v>
+        <v>17759437</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>110694</t>
+          <t>112177</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000849</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,38 +683,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>內湖德安                                    </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>自動扣繳109/10月中華電話費:Y172351      </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>19642</v>
       </c>
       <c r="F10" t="n">
-        <v>-2193</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>51638759</v>
+        <v>17779079</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>110694</t>
+          <t>112177</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000211</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,38 +724,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>彰化旭光	                                   </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>自動扣繳109/10月中華電話費:23261382     </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>24573</v>
       </c>
       <c r="F11" t="n">
-        <v>-849</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>51637910</v>
+        <v>17803652</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>110694</t>
+          <t>112177</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000947</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,38 +765,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>堤諾台南崇學                                  </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>自動扣繳109/10月中華電話費:Y231252      </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>41216</v>
       </c>
       <c r="F12" t="n">
-        <v>-859</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>51637051</v>
+        <v>17844868</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>110694</t>
+          <t>112177</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4000018</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,38 +806,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>羅東中山                                    </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>自動扣繳109/10月中華電話費:Y281387-是方電訊 </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>11018</v>
       </c>
       <c r="F13" t="n">
-        <v>-2502</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>51634549</v>
+        <v>17855886</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>110694</t>
+          <t>112177</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000387</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,38 +847,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>北市和平                                    </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>自動扣繳109/10月中華電話費:2217063      </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>15964</v>
       </c>
       <c r="F14" t="n">
-        <v>-251</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>51634298</v>
+        <v>17871850</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>110694</t>
+          <t>112177</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000414</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,38 +888,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>北市光復	                                   </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>自動扣繳109/10月中華電話費:03-3603786   </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="F15" t="n">
-        <v>-285</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>51634013</v>
+        <v>17921850</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>110694</t>
+          <t>112222</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000952</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,38 +929,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>北市南海	                                   </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>自動扣繳109/10月中華電話費:3922141      </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29489</v>
       </c>
       <c r="F16" t="n">
-        <v>-311</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>51633702</v>
+        <v>17951339</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>110694</t>
+          <t>112222</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000850</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -970,38 +970,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>北市光復	                                   </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>自動扣繳109/10月中華電話費:0800268998   </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F17" t="n">
-        <v>-447</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>51633255</v>
+        <v>17961339</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>110694</t>
+          <t>112222</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000952</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,38 +1011,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>新店耕莘                                    </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>自動扣繳109/10月中華電話費:0800023999   </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F18" t="n">
-        <v>-124</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>51633131</v>
+        <v>17991339</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>110694</t>
+          <t>112222</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000603</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1052,38 +1052,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>北市懷德                                    </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>自動扣繳109/10月電話費0936997740      </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="F19" t="n">
-        <v>-1799</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>51631332</v>
+        <v>18008339</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>110694</t>
+          <t>112222</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000349</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1093,38 +1093,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>汐止復興                                    </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>付呂煌祺建築師事務所-(全)設計費-尾款          </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>15275</v>
       </c>
       <c r="F20" t="n">
-        <v>-104004</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>51527328</v>
+        <v>18023614</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>110131</t>
+          <t>112222</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000285</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>台灣農畜產工業股份有限公司                           </t>
+          <t>扶風堂                                     </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1143,29 +1143,29 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>6284</v>
       </c>
       <c r="F21" t="n">
-        <v>-675549</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>50851779</v>
+        <v>18029898</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112222</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>100365</t>
+          <t>2000006</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>壯佳果股份有限公司                               </t>
+          <t>北市忠孝復興                                  </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1184,29 +1184,29 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59950</v>
       </c>
       <c r="F22" t="n">
-        <v>-47970</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>50803809</v>
+        <v>18089848</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112222</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>100057</t>
+          <t>1000548</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>大吉興業有限公司                                </t>
+          <t>台中精科	                                   </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1225,29 +1225,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>22622</v>
       </c>
       <c r="F23" t="n">
-        <v>-13862</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>50789947</v>
+        <v>18112470</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112222</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>100035</t>
+          <t>1000890</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大翰翔企業股份有限公司                             </t>
+          <t>土城頂捷                                    </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1266,29 +1266,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F24" t="n">
-        <v>-98250</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>50691697</v>
+        <v>18142470</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112222</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>100025</t>
+          <t>1000712</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>宗霆股份有限公司                                </t>
+          <t>平鎮豐頂                                    </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1307,29 +1307,29 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>37861</v>
       </c>
       <c r="F25" t="n">
-        <v>-66470</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>50625227</v>
+        <v>18180331</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112222</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>100417</t>
+          <t>1000805</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>富統食品股份有限公司                              </t>
+          <t>台中永安                                    </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1348,29 +1348,29 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="F26" t="n">
-        <v>-743370</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>49881857</v>
+        <v>18220331</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112222</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>100244</t>
+          <t>1000785</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>將寶實業股份有限公司                              </t>
+          <t>中壢松義	                                   </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1389,29 +1389,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>83215</v>
       </c>
       <c r="F27" t="n">
-        <v>-164190</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>49717667</v>
+        <v>18303546</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>100249</t>
+          <t>1000871</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>展昌行                                     </t>
+          <t>斗六慶生	                                   </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1430,29 +1430,29 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>13579</v>
       </c>
       <c r="F28" t="n">
-        <v>-83970</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>49633697</v>
+        <v>18317125</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>100058</t>
+          <t>1000912</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>山汰科技股份有限公司                              </t>
+          <t>中壢九和                                    </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1471,29 +1471,29 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>16094</v>
       </c>
       <c r="F29" t="n">
-        <v>-511488</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>49122209</v>
+        <v>18333219</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112177</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>100517</t>
+          <t>1000742</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1503,38 +1503,38 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>弘飛興業股份有限公司                              </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>暫收-余灼蓮-桃園大同西 工程款25萬           </t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="F30" t="n">
-        <v>-319970</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>48802239</v>
+        <v>18583219</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112291</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>100709</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1544,38 +1544,38 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>方霖實業有限公司                                </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>10906台北展NO.125-蘇炳文-大里內新 工程款   </t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146875</v>
       </c>
       <c r="F31" t="n">
-        <v>-482373</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>48319866</v>
+        <v>18730094</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112291</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>100438</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1585,38 +1585,38 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>有勝企業股份有限公司                              </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>10910月台北展NO.81-林增榮-花蓮忠義三店 工程款 </t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="F32" t="n">
-        <v>-542777</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>47777089</v>
+        <v>19230094</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112291</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>100307</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1626,38 +1626,38 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>欣伯國際股份有限公司                              </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>10910月台北展NO.81-林增榮-花蓮忠義三店 工程款 </t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="F33" t="n">
-        <v>-27969</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>47749120</v>
+        <v>19280094</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112291</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>100325</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>泰安食品股份有限公司                              </t>
+          <t>中壢九和                                    </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1676,29 +1676,29 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2985</v>
       </c>
       <c r="F34" t="n">
-        <v>-369274</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>47379846</v>
+        <v>19283079</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>100355</t>
+          <t>1000742</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海麟國際食品有限公司                              </t>
+          <t>崙背建國                                    </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1717,29 +1717,29 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>44643</v>
       </c>
       <c r="F35" t="n">
-        <v>-134490</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>47245356</v>
+        <v>19327722</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>100760</t>
+          <t>1000790</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>碁富食品股份有限公司                              </t>
+          <t>西螺光復                                    </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1758,29 +1758,29 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>28921</v>
       </c>
       <c r="F36" t="n">
-        <v>-638369</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>46606987</v>
+        <v>19356643</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>100280</t>
+          <t>1000282</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>立墩股份有限公司                                </t>
+          <t>西螺光復                                    </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1799,29 +1799,29 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>7859</v>
       </c>
       <c r="F37" t="n">
-        <v>-498545</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>46108442</v>
+        <v>19364502</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>100385</t>
+          <t>1000282</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>紅政企業股份有限公司                              </t>
+          <t>台中遼寧	                                   </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1840,29 +1840,29 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>26345</v>
       </c>
       <c r="F38" t="n">
-        <v>-1626750</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>44481692</v>
+        <v>19390847</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>100103</t>
+          <t>1000870</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>美福貿易股份有限公司                              </t>
+          <t>高雄昌富                                    </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1881,29 +1881,29 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>21447</v>
       </c>
       <c r="F39" t="n">
-        <v>-97250</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>44384442</v>
+        <v>19412294</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>100092</t>
+          <t>1000262</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>誠毅紙器股份有限公司                              </t>
+          <t>大里大智	                                   </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1922,29 +1922,29 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>9305</v>
       </c>
       <c r="F40" t="n">
-        <v>-151288</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>44233154</v>
+        <v>19421599</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>100294</t>
+          <t>1000943</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>世界大山有限公司(英屬維京群島商大山洋行有限公司台灣分公司)          </t>
+          <t>土城永寧	                                   </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1963,29 +1963,29 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>10290</v>
       </c>
       <c r="F41" t="n">
-        <v>-16199</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>44216955</v>
+        <v>19431889</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>100029</t>
+          <t>1000935</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>元家企業股份有限公司                              </t>
+          <t>北市愛國                                    </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2004,29 +2004,29 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>39884</v>
       </c>
       <c r="F42" t="n">
-        <v>-38970</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>44177985</v>
+        <v>19471773</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>100221</t>
+          <t>1000433</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>豐儷企業有限公司                                </t>
+          <t>三重光復                                    </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2045,29 +2045,29 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>31144</v>
       </c>
       <c r="F43" t="n">
-        <v>-33570</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>44144415</v>
+        <v>19502917</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>100434</t>
+          <t>1000781</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>加和紙業股份有限公司                              </t>
+          <t>永和永利	                                   </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2086,29 +2086,29 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>29050</v>
       </c>
       <c r="F44" t="n">
-        <v>-55820</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>44088595</v>
+        <v>19531967</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>100254</t>
+          <t>1000954</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鄉村食品股份有限公司                              </t>
+          <t>花壇中正                                    </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2127,29 +2127,29 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>50033</v>
       </c>
       <c r="F45" t="n">
-        <v>-385050</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>43703545</v>
+        <v>19582000</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>100342</t>
+          <t>1000382</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>點鑫產業股份有限公司                              </t>
+          <t>北市光復	                                   </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2168,29 +2168,29 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3917</v>
       </c>
       <c r="F46" t="n">
-        <v>-3545167</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>40158378</v>
+        <v>19585917</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>100041</t>
+          <t>1000952</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>加峰塑膠工業有限公司                              </t>
+          <t>南崁中山                                    </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2209,29 +2209,29 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>14600</v>
       </c>
       <c r="F47" t="n">
-        <v>-198100</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>39960278</v>
+        <v>19600517</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>100698</t>
+          <t>1000354</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>原產地國際食品有限公司                             </t>
+          <t>堤諾板橋府中                                  </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2250,29 +2250,29 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>151220</v>
       </c>
       <c r="F48" t="n">
-        <v>-15720</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>39944558</v>
+        <v>19751737</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>100224</t>
+          <t>4000019</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>龍達國際有限公司                                </t>
+          <t>三重正義南	                                  </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2291,29 +2291,29 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>10294</v>
       </c>
       <c r="F49" t="n">
-        <v>-954194</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>38990364</v>
+        <v>19762031</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>100386</t>
+          <t>1000962</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>台灣卜蜂企業股份有限公司                            </t>
+          <t>蘆竹大竹                                    </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2332,29 +2332,29 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="F50" t="n">
-        <v>-682712</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>38307652</v>
+        <v>19812031</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>1000593</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>益彬實業股份有限公司                              </t>
+          <t>大里內新	                                   </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2373,29 +2373,29 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>75236</v>
       </c>
       <c r="F51" t="n">
-        <v>-772170</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>37535482</v>
+        <v>19887267</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>100794</t>
+          <t>1000966</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>華盛食品有限公司                                </t>
+          <t>高雄富民                                    </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2414,29 +2414,29 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>25163</v>
       </c>
       <c r="F52" t="n">
-        <v>-123970</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>37411512</v>
+        <v>19912430</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>100110</t>
+          <t>1000879</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>稻穗企業社                                   </t>
+          <t>楊梅校前	                                   </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2455,29 +2455,29 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>19748</v>
       </c>
       <c r="F53" t="n">
-        <v>-24971</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>37386541</v>
+        <v>19932178</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>100033</t>
+          <t>1000939</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>統清股份有限公司                                </t>
+          <t>楊梅青山                                    </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2496,29 +2496,29 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>15496</v>
       </c>
       <c r="F54" t="n">
-        <v>-163650</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>37222891</v>
+        <v>19947674</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>100686</t>
+          <t>1000887</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2528,38 +2528,38 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>三紅企業股份有限公司                              </t>
+          <t>新店建國                                    </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>41971</v>
       </c>
       <c r="F55" t="n">
-        <v>-95970</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>37126921</v>
+        <v>19989645</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112300</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>100235</t>
+          <t>1000236</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2569,38 +2569,38 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>華福食品股份有限公司                              </t>
+          <t>新豐新興                                    </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>26383</v>
       </c>
       <c r="F56" t="n">
-        <v>-1195721</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>35931200</v>
+        <v>20016028</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112300</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>100132</t>
+          <t>1000018</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2610,38 +2610,38 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>開元食品工業(股)公司二洲美營業所                       </t>
+          <t>新竹延平                                    </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>16400</v>
       </c>
       <c r="F57" t="n">
-        <v>-243930</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>35687270</v>
+        <v>20032428</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112300</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>100810</t>
+          <t>1000255</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2651,38 +2651,38 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>今口香調理食品股份有限公司                           </t>
+          <t>北市汀州三總                                  </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>12100</v>
       </c>
       <c r="F58" t="n">
-        <v>-2540648</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>33146622</v>
+        <v>20044528</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112300</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>100267</t>
+          <t>1000415</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2692,38 +2692,38 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>古德芙股份有限公司                               </t>
+          <t>台北八德                                    </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>11974</v>
       </c>
       <c r="F59" t="n">
-        <v>-36465</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>33110157</v>
+        <v>20056502</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112300</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>100786</t>
+          <t>1000202</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2733,38 +2733,38 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>可津食品有限公司                                </t>
+          <t>頭城新興                                    </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F60" t="n">
-        <v>-414070</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>32696087</v>
+        <v>20066502</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112300</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>100141</t>
+          <t>1000333</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2774,38 +2774,38 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>開元食品工業股份有限公司台北市內湖區營業所                   </t>
+          <t>林口醒吾                                    </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>36180</v>
       </c>
       <c r="F61" t="n">
-        <v>-754566</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>31941521</v>
+        <v>20102682</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112300</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>100443</t>
+          <t>1000099</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2815,38 +2815,38 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>乙香房實業股份有限公司                             </t>
+          <t>土城中央                                    </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="F62" t="n">
-        <v>-41568</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>31899953</v>
+        <v>20131682</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112300</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>100781</t>
+          <t>1000397</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2856,38 +2856,38 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>綠盟股份有限公司                                </t>
+          <t>北市汀州三總                                  </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>14600</v>
       </c>
       <c r="F63" t="n">
-        <v>-287549</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>31612404</v>
+        <v>20146282</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112300</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>100387</t>
+          <t>1000415</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>味全食品工業股份有限公司                            </t>
+          <t>北市五分	                                   </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2906,29 +2906,29 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>17584</v>
       </c>
       <c r="F64" t="n">
-        <v>-901470</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>30710934</v>
+        <v>20163866</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>100200</t>
+          <t>1000905</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>喜生食品工業股份有限公司                            </t>
+          <t>竹北福興                                    </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2947,29 +2947,29 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>29169</v>
       </c>
       <c r="F65" t="n">
-        <v>-1980992</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>28729942</v>
+        <v>20193035</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>100341</t>
+          <t>1000716</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2979,38 +2979,38 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>風城製麵有限公司                                </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付林大為-沖11/30#112261           </t>
         </is>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>-21285</v>
+        <v>-3700</v>
       </c>
       <c r="G66" t="n">
-        <v>28708657</v>
+        <v>20189335</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112266</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>100823</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>飛力食品企業股份有限公司                            </t>
+          <t>花蓮東華	                                   </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3029,29 +3029,29 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>28569</v>
       </c>
       <c r="F67" t="n">
-        <v>-160410</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>28548247</v>
+        <v>20217904</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>100708</t>
+          <t>1000950</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3061,38 +3061,38 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>佰勳股份有限公司                                </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付黃俊霖-沖11/30#112261           </t>
         </is>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>-37455</v>
+        <v>-2549</v>
       </c>
       <c r="G68" t="n">
-        <v>28510792</v>
+        <v>20215355</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112266</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>100010</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3102,38 +3102,38 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>全盈創新科技有限公司(全盈稻香餐具)                      </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-0133 鐘婉屏費用申請             </t>
         </is>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>-62445</v>
+        <v>-6000</v>
       </c>
       <c r="G69" t="n">
-        <v>28448347</v>
+        <v>20209355</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112266</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>100721</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3143,38 +3143,38 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>羅德食品興業有限公司                              </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>匯振弘-支付11-0135 劉淑姬費用申請         </t>
         </is>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>-281946</v>
+        <v>-26250</v>
       </c>
       <c r="G70" t="n">
-        <v>28166401</v>
+        <v>20183105</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112266</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>100816</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3184,38 +3184,38 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>大新食品有限公司                                </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>退訂                            </t>
         </is>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>-1737550</v>
+        <v>-1000</v>
       </c>
       <c r="G71" t="n">
-        <v>26428851</v>
+        <v>20182105</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112294</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>100040</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3225,38 +3225,38 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>魔術食品工業股份有限公司                            </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付許仁傑-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>-2861357</v>
+        <v>-12480</v>
       </c>
       <c r="G72" t="n">
-        <v>23567494</v>
+        <v>20169625</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>100079</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3266,38 +3266,38 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>麥可利食品有限公司                               </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>10910月台北展NO29-符美君/符建民-平鎮中山 暫收款</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="F73" t="n">
-        <v>-358370</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>23209124</v>
+        <v>20229625</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112348</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>100075</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3307,38 +3307,38 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>十鴻企業有限公司                                </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>10910月台北展NO29-符美君/符建民-平鎮中山 保證金</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="F74" t="n">
-        <v>-115755</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>23093369</v>
+        <v>20279625</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112348</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>100223</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3348,38 +3348,38 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>南僑油脂事業股份有限公司                            </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>暫收-竹南龍山-張淑娟 工程款20萬            </t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="F75" t="n">
-        <v>-213169</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>22880200</v>
+        <v>20479625</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112348</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>100285</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3389,38 +3389,38 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>群博國際有限公司                                </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付謝雅蓮-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>-663289</v>
+        <v>-20</v>
       </c>
       <c r="G76" t="n">
-        <v>22216911</v>
+        <v>20479605</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>100154</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3430,38 +3430,38 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>誠芳股份有限公司                                </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付謝雅蓮-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>-8610</v>
+        <v>-4400</v>
       </c>
       <c r="G77" t="n">
-        <v>22208301</v>
+        <v>20475205</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>100213</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3471,38 +3471,38 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>富華股份有限公司                                </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付黃凱祺-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>-38526</v>
+        <v>-4250</v>
       </c>
       <c r="G78" t="n">
-        <v>22169775</v>
+        <v>20470955</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>100423</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3512,38 +3512,38 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>弘繽企業有限公司                                </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付王景鴻-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>-97170</v>
+        <v>-6540</v>
       </c>
       <c r="G79" t="n">
-        <v>22072605</v>
+        <v>20464415</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>100099</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3553,38 +3553,38 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>品高企業股份有限公司                              </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付顏于菁-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>-144287</v>
+        <v>-3829</v>
       </c>
       <c r="G80" t="n">
-        <v>21928318</v>
+        <v>20460586</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>100245</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3594,38 +3594,38 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>金城餐具有限公司                                </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付顏于菁-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>-80894</v>
+        <v>-3627</v>
       </c>
       <c r="G81" t="n">
-        <v>21847424</v>
+        <v>20456959</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>100272</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3635,38 +3635,38 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>金安信食品有限公司                               </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付顏于菁-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>-274420</v>
+        <v>-1713</v>
       </c>
       <c r="G82" t="n">
-        <v>21573004</v>
+        <v>20455246</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>100789</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3676,38 +3676,38 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>強匠冷凍食品股份有限公司                            </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付陳沛淇-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>-199039</v>
+        <v>-3720</v>
       </c>
       <c r="G83" t="n">
-        <v>21373965</v>
+        <v>20451526</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>100685</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3717,38 +3717,38 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>喬記實業有限公司                                </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>匯109/12月:輝永實業有限公司租金           </t>
         </is>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>-485070</v>
+        <v>-39870</v>
       </c>
       <c r="G84" t="n">
-        <v>20888895</v>
+        <v>20411656</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>111941</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>100165</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3758,38 +3758,38 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>坊元實業股份有限公司                              </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付吳恩賜-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>-7845</v>
+        <v>-5000</v>
       </c>
       <c r="G85" t="n">
-        <v>20881050</v>
+        <v>20406656</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>100429</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3799,38 +3799,38 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>馥德生有限公司                                 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付游宇宸-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>-219970</v>
+        <v>-4265</v>
       </c>
       <c r="G86" t="n">
-        <v>20661080</v>
+        <v>20402391</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>100420</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3840,38 +3840,38 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>御軒食品有限公司                                </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>匯109/12月周淑婷-南區辦公處租金-開立扣繳憑單    </t>
         </is>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>-1078894</v>
+        <v>-6500</v>
       </c>
       <c r="G87" t="n">
-        <v>19582186</v>
+        <v>20395891</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>111941</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>100232</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3881,38 +3881,38 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>曲辰實業有限公司                                </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>匯109/12月杜欣芳-中區辦公室租金-開立扣繳憑單    </t>
         </is>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>-167970</v>
+        <v>-8000</v>
       </c>
       <c r="G88" t="n">
-        <v>19414216</v>
+        <v>20387891</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>111941</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>100780</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3922,38 +3922,38 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>士盟紙業有限公司                                </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付黃隆玄-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>-15930</v>
+        <v>-3368</v>
       </c>
       <c r="G89" t="n">
-        <v>19398286</v>
+        <v>20384523</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>100175</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3963,38 +3963,38 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>桂冠實業股份有公司                               </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付胡毓樺-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>-6330</v>
+        <v>-2990</v>
       </c>
       <c r="G90" t="n">
-        <v>19391956</v>
+        <v>20381533</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>100145</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4004,38 +4004,38 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>廖丁川                                     </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付陳俊維-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>-33620</v>
+        <v>-1232</v>
       </c>
       <c r="G91" t="n">
-        <v>19358336</v>
+        <v>20380301</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>100793</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4045,38 +4045,38 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>弘大昌貿易有限公司                               </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付陳世偉-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>-2850</v>
+        <v>-4485</v>
       </c>
       <c r="G92" t="n">
-        <v>19355486</v>
+        <v>20375816</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>100812</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4086,38 +4086,38 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>模里西斯商台紐股份有限公司台灣分公司                      </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付楊俊志-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>-179970</v>
+        <v>-315</v>
       </c>
       <c r="G93" t="n">
-        <v>19175516</v>
+        <v>20375501</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>100371</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4127,38 +4127,38 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>泉橋有限公司                                  </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付鄭維愉-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>-412343</v>
+        <v>-100</v>
       </c>
       <c r="G94" t="n">
-        <v>18763173</v>
+        <v>20375401</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>100490</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4168,38 +4168,38 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>愛味香食品股份有限公司                             </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付李家君-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>-184772</v>
+        <v>-3730</v>
       </c>
       <c r="G95" t="n">
-        <v>18578401</v>
+        <v>20371671</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>100068</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4209,38 +4209,38 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>皓廷食品科技有限公司                              </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付詹凱琳-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>-38970</v>
+        <v>-1695</v>
       </c>
       <c r="G96" t="n">
-        <v>18539431</v>
+        <v>20369976</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>100754</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4250,38 +4250,38 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>祥亮行銷事業股份有限公司                            </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付詹凱琳-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>-823820</v>
+        <v>-5975</v>
       </c>
       <c r="G97" t="n">
-        <v>17715611</v>
+        <v>20364001</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>100351</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4291,38 +4291,38 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>憶霖企業股份有限公司                              </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付太宇-沖11/30#112195            </t>
         </is>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>-423720</v>
+        <v>-355</v>
       </c>
       <c r="G98" t="n">
-        <v>17291891</v>
+        <v>20363646</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>100320</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4332,38 +4332,38 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>承康研創股份有限公司                              </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>迪呈企業有限公司(信格)10月應付款            </t>
         </is>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>-163440</v>
+        <v>-149780</v>
       </c>
       <c r="G99" t="n">
-        <v>17128451</v>
+        <v>20213866</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112228</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>100765</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4373,38 +4373,38 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>禾山國際有限公司                                </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>匯東閔-沖11/30#112211-109/11月東閔油品 </t>
         </is>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>-448870</v>
+        <v>-280274</v>
       </c>
       <c r="G100" t="n">
-        <v>16679581</v>
+        <v>19933592</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112212</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>100803</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>東爵企業有限公司                                </t>
+          <t>一次性廠商(開發票)                              </t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4426,26 +4426,26 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>-300486</v>
+        <v>-96000</v>
       </c>
       <c r="G101" t="n">
-        <v>16379095</v>
+        <v>19837592</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112219</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>100034</t>
+          <t>799999</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>紅利食品股份有限公司                              </t>
+          <t>一次性廠商(開發票)                              </t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4467,26 +4467,26 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>-396220</v>
+        <v>-120000</v>
       </c>
       <c r="G102" t="n">
-        <v>15982875</v>
+        <v>19717592</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112214</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>100546</t>
+          <t>799999</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>美藍雷股份有限公司                               </t>
+          <t>一次性廠商(開發票)                              </t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4508,26 +4508,26 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>-514695</v>
+        <v>-120000</v>
       </c>
       <c r="G103" t="n">
-        <v>15468180</v>
+        <v>19597592</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112189</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>100038</t>
+          <t>799999</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>東豐調理食品股份有限公司                            </t>
+          <t>一次性廠商(開發票)                              </t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4549,26 +4549,26 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>-214170</v>
+        <v>-13800</v>
       </c>
       <c r="G104" t="n">
-        <v>15254010</v>
+        <v>19583792</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112258</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>100797</t>
+          <t>799999</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>歐得斯有限公司                                 </t>
+          <t>一次性廠商(開發票)                              </t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4590,26 +4590,26 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>-23511</v>
+        <v>-6269</v>
       </c>
       <c r="G105" t="n">
-        <v>15230499</v>
+        <v>19577523</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112277</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>100809</t>
+          <t>799999</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>翔琪實業有限公司                                </t>
+          <t>一次性廠商(開發票)                              </t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4628,29 +4628,29 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="F106" t="n">
-        <v>-145577</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>15084922</v>
+        <v>19697523</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112189</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>100791</t>
+          <t>799999</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>永豐餘消費品實業股份有限公司                          </t>
+          <t>堤諾長庚                                    </t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4669,29 +4669,29 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>93457</v>
       </c>
       <c r="F107" t="n">
-        <v>-22545</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>15062377</v>
+        <v>19790980</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112352</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>100531</t>
+          <t>4000024</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>源友企業股份有限公司                              </t>
+          <t>堤諾林口店                                   </t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4710,29 +4710,29 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>61482</v>
       </c>
       <c r="F108" t="n">
-        <v>-57470</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>15004907</v>
+        <v>19852462</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>110398</t>
+          <t>112352</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>100226</t>
+          <t>4000023</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>艾瑞始達股份有限公司                              </t>
+          <t>台南中金院	                                  </t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4751,29 +4751,29 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>102459</v>
       </c>
       <c r="F109" t="n">
-        <v>-1175870</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>13829037</v>
+        <v>19954921</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>100422</t>
+          <t>1000803</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>華冠乳品股份有限公司                              </t>
+          <t>北市懷德                                    </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4792,29 +4792,29 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>22277</v>
       </c>
       <c r="F110" t="n">
-        <v>-381875</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>13447162</v>
+        <v>19977198</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>110335</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>100107</t>
+          <t>1000349</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4824,7 +4824,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>佑鎬國際食品有限公司                              </t>
+          <t>龍井竹坑                                    </t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4833,29 +4833,29 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>20314</v>
       </c>
       <c r="F111" t="n">
-        <v>-171406</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>13275756</v>
+        <v>19997512</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>110090</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>100305</t>
+          <t>1000515</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>全國食材廣場有限公司                              </t>
+          <t>板橋三民	                                   </t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4874,29 +4874,29 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>21500</v>
       </c>
       <c r="F112" t="n">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>13272756</v>
+        <v>20019012</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>110090</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>100157</t>
+          <t>1000936</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4906,7 +4906,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>力遠貿易股份有限公司                              </t>
+          <t>蘇澳中山                                    </t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4915,29 +4915,29 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>20244</v>
       </c>
       <c r="F113" t="n">
-        <v>-113370</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>13159386</v>
+        <v>20039256</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>110090</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>100763</t>
+          <t>1000406</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>協憶有限公司                                  </t>
+          <t>神岡豐洲	                                   </t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4956,29 +4956,29 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>19491</v>
       </c>
       <c r="F114" t="n">
-        <v>-209689</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>12949697</v>
+        <v>20058747</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>110090</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>100529</t>
+          <t>1000922</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>台灣可果美股份有限公司                             </t>
+          <t>基隆新豐	                                   </t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4997,29 +4997,29 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>33341</v>
       </c>
       <c r="F115" t="n">
-        <v>-117318</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>12832379</v>
+        <v>20092088</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>110090</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>100510</t>
+          <t>1000841</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5029,7 +5029,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>嘉楓食品股份有限公司                              </t>
+          <t>新營中正	                                   </t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5038,29 +5038,29 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>15228</v>
       </c>
       <c r="F116" t="n">
-        <v>-2301</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>12830078</v>
+        <v>20107316</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>110090</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>100279</t>
+          <t>1000834</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>尚品肉鬆實業有限公司                              </t>
+          <t>高雄城峰	                                   </t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5079,29 +5079,29 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>20867</v>
       </c>
       <c r="F117" t="n">
-        <v>-336990</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>12493088</v>
+        <v>20128183</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>110090</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>100185</t>
+          <t>1000880</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>康百國際食品股份有限公司                            </t>
+          <t>桃園中正長春	                                 </t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5120,29 +5120,29 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>11994</v>
       </c>
       <c r="F118" t="n">
-        <v>-190290</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>12302798</v>
+        <v>20140177</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>110090</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>100800</t>
+          <t>1000925</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>廣富園開發行銷有限公司                             </t>
+          <t>東勢東崎                                    </t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5161,29 +5161,29 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>43109</v>
       </c>
       <c r="F119" t="n">
-        <v>-149769</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>12153029</v>
+        <v>20183286</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>110090</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>100788</t>
+          <t>1000111</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>東穎食品實業有限公司                              </t>
+          <t>梧棲中興	                                   </t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5202,29 +5202,29 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>15481</v>
       </c>
       <c r="F120" t="n">
-        <v>-114127</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>12038902</v>
+        <v>20198767</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>110090</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>100039</t>
+          <t>1000898</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>欣臨企業股份有限公司                              </t>
+          <t>板橋北門                                    </t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5243,29 +5243,29 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>41008</v>
       </c>
       <c r="F121" t="n">
-        <v>-4710</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>12034192</v>
+        <v>20239775</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>110090</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>100352</t>
+          <t>1000144</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>永大食品生技股份有限公司                            </t>
+          <t>三重集美                                    </t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5284,29 +5284,29 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>60808</v>
       </c>
       <c r="F122" t="n">
-        <v>-30770</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>12003422</v>
+        <v>20300583</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>110090</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>100209</t>
+          <t>1000151</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>河洛企業股份有限公司                              </t>
+          <t>中和環球	                                   </t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5325,29 +5325,29 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>54000</v>
       </c>
       <c r="F123" t="n">
-        <v>-54854</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>11948568</v>
+        <v>20354583</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>110090</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>100128</t>
+          <t>1000846</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>爭鮮股份有限公司                                </t>
+          <t>花蓮中山                                    </t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5366,29 +5366,29 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>26311</v>
       </c>
       <c r="F124" t="n">
-        <v>-301538</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>11647030</v>
+        <v>20380894</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>110090</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>100061</t>
+          <t>1000882</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5398,1671 +5398,31 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>紅榜股份有限公司                                </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付李豫如-沖11/30#112261           </t>
         </is>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>-67470</v>
+        <v>-3935</v>
       </c>
       <c r="G125" t="n">
-        <v>11579560</v>
+        <v>20376959</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>110090</t>
+          <t>112266</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>100069</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>美味大師股份有限公司                              </t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" t="n">
-        <v>-326259</v>
-      </c>
-      <c r="G126" t="n">
-        <v>11253301</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>110090</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>100545</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>美味王食品工業有限公司                             </t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>0</v>
-      </c>
-      <c r="F127" t="n">
-        <v>-63890</v>
-      </c>
-      <c r="G127" t="n">
-        <v>11189411</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>110090</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>100082</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>美食家食材通路股份有限公司                           </t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>0</v>
-      </c>
-      <c r="F128" t="n">
-        <v>-4002</v>
-      </c>
-      <c r="G128" t="n">
-        <v>11185409</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>110090</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>100488</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>聯合利華股份有限公司                              </t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E129" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" t="n">
-        <v>-10313</v>
-      </c>
-      <c r="G129" t="n">
-        <v>11175096</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>110090</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>100391</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>聯華製粉食品股份有限公司                            </t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E130" t="n">
-        <v>0</v>
-      </c>
-      <c r="F130" t="n">
-        <v>-87509</v>
-      </c>
-      <c r="G130" t="n">
-        <v>11087587</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>110090</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>100798</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>聯馥食品股份有限公司                              </t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>0</v>
-      </c>
-      <c r="F131" t="n">
-        <v>-33234</v>
-      </c>
-      <c r="G131" t="n">
-        <v>11054353</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>110090</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>100748</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>良潔實業有限公司                                </t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E132" t="n">
-        <v>0</v>
-      </c>
-      <c r="F132" t="n">
-        <v>-7970</v>
-      </c>
-      <c r="G132" t="n">
-        <v>11046383</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>110090</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>100403</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>豐盈股份有限公司                                </t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F133" t="n">
-        <v>-137250</v>
-      </c>
-      <c r="G133" t="n">
-        <v>10909133</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>110090</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>100432</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>陸榖實業股份有限公司                              </t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E134" t="n">
-        <v>0</v>
-      </c>
-      <c r="F134" t="n">
-        <v>-23289</v>
-      </c>
-      <c r="G134" t="n">
-        <v>10885844</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>110090</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>100817</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>駿伸企業有限公司                                </t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v>0</v>
-      </c>
-      <c r="F135" t="n">
-        <v>-27390</v>
-      </c>
-      <c r="G135" t="n">
-        <v>10858454</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>110090</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>100261</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>台北八德                                    </t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>100000.1102.301               </t>
-        </is>
-      </c>
-      <c r="E136" t="n">
-        <v>8670</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0</v>
-      </c>
-      <c r="G136" t="n">
-        <v>10867124</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>110588</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>1000202</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>楊梅四維                                    </t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>100000.1102.301               </t>
-        </is>
-      </c>
-      <c r="E137" t="n">
-        <v>13911</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G137" t="n">
-        <v>10881035</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>110588</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>1000252</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>豐原向陽                                    </t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E138" t="n">
-        <v>12797</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0</v>
-      </c>
-      <c r="G138" t="n">
-        <v>10893832</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>110530</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>1000256</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>台東中華                                    </t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>6016</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0</v>
-      </c>
-      <c r="G139" t="n">
-        <v>10899848</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>110530</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>1000582</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>汐止工建	                                   </t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v>16979</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0</v>
-      </c>
-      <c r="G140" t="n">
-        <v>10916827</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>110530</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>1000777</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>豐原南陽	                                   </t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E141" t="n">
-        <v>23562</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0</v>
-      </c>
-      <c r="G141" t="n">
-        <v>10940389</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>110530</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>1000856</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>北市和平                                    </t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E142" t="n">
-        <v>20109</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0</v>
-      </c>
-      <c r="G142" t="n">
-        <v>10960498</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>110530</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>1000414</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>存現                            </t>
-        </is>
-      </c>
-      <c r="E143" t="n">
-        <v>1050842</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0</v>
-      </c>
-      <c r="G143" t="n">
-        <v>12011340</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>110584</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
           <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>羅東成功                                    </t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E144" t="n">
-        <v>29556</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0</v>
-      </c>
-      <c r="G144" t="n">
-        <v>12040896</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>110530</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>1000317</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>善化大成                                    </t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E145" t="n">
-        <v>22780</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0</v>
-      </c>
-      <c r="G145" t="n">
-        <v>12063676</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>110530</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>1000629</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>竹北嘉興	                                   </t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E146" t="n">
-        <v>26906</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G146" t="n">
-        <v>12090582</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>110530</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>1000938</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>民雄文化                                    </t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E147" t="n">
-        <v>30000</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0</v>
-      </c>
-      <c r="G147" t="n">
-        <v>12120582</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>110530</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>1000854</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>苗栗中正                                    </t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E148" t="n">
-        <v>23626</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G148" t="n">
-        <v>12144208</v>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>110530</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>1000788</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>汐止復興                                    </t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E149" t="n">
-        <v>15542</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0</v>
-      </c>
-      <c r="G149" t="n">
-        <v>12159750</v>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>110530</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>1000285</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>平鎮豐頂                                    </t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v>22158</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0</v>
-      </c>
-      <c r="G150" t="n">
-        <v>12181908</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>110530</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>1000805</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>楊梅梅獅                                    </t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E151" t="n">
-        <v>76287</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0</v>
-      </c>
-      <c r="G151" t="n">
-        <v>12258195</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>110530</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>1000961</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>桃園廈門                                    </t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E152" t="n">
-        <v>18911</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0</v>
-      </c>
-      <c r="G152" t="n">
-        <v>12277106</v>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>110530</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>1000910</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>桃園大業	                                   </t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v>24732</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0</v>
-      </c>
-      <c r="G153" t="n">
-        <v>12301838</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>110530</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>1000873</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>白河國泰                                    </t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E154" t="n">
-        <v>15832</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0</v>
-      </c>
-      <c r="G154" t="n">
-        <v>12317670</v>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>110530</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>1000536</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>北市光復	                                   </t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>50000</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0</v>
-      </c>
-      <c r="G155" t="n">
-        <v>12367670</v>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>110530</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>1000952</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>北市光復	                                   </t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E156" t="n">
-        <v>6054</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0</v>
-      </c>
-      <c r="G156" t="n">
-        <v>12373724</v>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>110530</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>1000952</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>新竹湳雅	                                   </t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E157" t="n">
-        <v>27982</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0</v>
-      </c>
-      <c r="G157" t="n">
-        <v>12401706</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>110594</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>1000918</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>竹北台元	                                   </t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E158" t="n">
-        <v>17923</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0</v>
-      </c>
-      <c r="G158" t="n">
-        <v>12419629</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>110594</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>1000920</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>土城永寧	                                   </t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E159" t="n">
-        <v>28624</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0</v>
-      </c>
-      <c r="G159" t="n">
-        <v>12448253</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>110594</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>1000935</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>新竹橫山	                                   </t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E160" t="n">
-        <v>24105</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0</v>
-      </c>
-      <c r="G160" t="n">
-        <v>12472358</v>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>110594</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>1000844</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>八德中正	                                   </t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E161" t="n">
-        <v>32208</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0</v>
-      </c>
-      <c r="G161" t="n">
-        <v>12504566</v>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>110594</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>1000830</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>永和竹林                                    </t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E162" t="n">
-        <v>31595</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0</v>
-      </c>
-      <c r="G162" t="n">
-        <v>12536161</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>110594</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>1000573</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>北市五分	                                   </t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E163" t="n">
-        <v>18929</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0</v>
-      </c>
-      <c r="G163" t="n">
-        <v>12555090</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>110594</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>1000905</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>桃園中正長春	                                 </t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E164" t="n">
-        <v>12654</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0</v>
-      </c>
-      <c r="G164" t="n">
-        <v>12567744</v>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>110594</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>1000925</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>20201026</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>中壢環東中山                                  </t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E165" t="n">
-        <v>16771</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0</v>
-      </c>
-      <c r="G165" t="n">
-        <v>12584515</v>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>110594</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>1000817</t>
         </is>
       </c>
     </row>
